--- a/afar_project/csv_path/excel_files/Impairment_data.xlsx
+++ b/afar_project/csv_path/excel_files/Impairment_data.xlsx
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>600</v>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>-0.00131775700901926</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>9135</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>16531.8</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3510</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>7776</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>76608</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>8640</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>4012.5</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>29190</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1912.5</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3517.008</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>879.252</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1.455191522836685e-11</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>14586</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0.001632653058550204</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>16166.72</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2624</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6828.856</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2932</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6720</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -4595,7 +4595,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2951.714285714286</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>6785.200000000001</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>5625.71428571429</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>8928.571428571435</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>-2.91038304567337e-11</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -5763,7 +5763,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>5242.857142857149</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>30590.85714285716</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -5929,7 +5929,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>3710586</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -5985,7 +5985,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>3618760</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -6039,7 +6039,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>6114.428571428572</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2871.428571428572</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>617.1428571428578</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1414.285714285716</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>8257.142857142862</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>26133.85714285716</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -6481,7 +6481,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>1306.571428571429</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>10394.28571428572</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>147000</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -6927,7 +6927,7 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>14839.71428571429</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>11260</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
@@ -7095,7 +7095,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>7114.285714285717</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>13852.85714285714</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>16586</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>14500</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -7541,7 +7541,7 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>58500</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -7597,7 +7597,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>8750</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>4088.4</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>11270.8</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -7765,7 +7765,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>8397.799999999996</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>397.8</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -7877,7 +7877,7 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>3889.285714285715</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>16280</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -8043,7 +8043,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -8099,7 +8099,7 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>26667</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>10688.4</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -8211,7 +8211,7 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>11823.2</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -8323,7 +8323,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>55801</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
@@ -8379,7 +8379,7 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>26077.39999999999</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -8435,7 +8435,7 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>2307550</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -8489,7 +8489,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>21231.7</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>92000</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -8601,7 +8601,7 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>32849.208</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -8657,7 +8657,7 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>12960.912</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>15015</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>13639.5</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
@@ -8823,7 +8823,7 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>2571.428571428572</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -8877,7 +8877,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -8931,7 +8931,7 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -8985,7 +8985,7 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>67370.95749999999</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -9039,7 +9039,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>22429.375</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>3382.3625</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
@@ -9147,7 +9147,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>212500</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
@@ -9201,7 +9201,7 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>32725</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>1187.025</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -9309,7 +9309,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>105655</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -9363,7 +9363,7 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>4653.75</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -9417,7 +9417,7 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>263088</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>30520</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -9525,7 +9525,7 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>30520</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>952</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>24804</v>
+        <v>0</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>107200</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -10018,7 +10018,7 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>124950</v>
+        <v>0</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -10074,7 +10074,7 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>179010</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>6103</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
         <v>0</v>
@@ -10184,7 +10184,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>4972.5</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>7650</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>3230</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>3740</v>
+        <v>0</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -10402,7 +10402,7 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>15300</v>
+        <v>0</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
@@ -10456,7 +10456,7 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>16294.5</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
         <v>0</v>
@@ -10510,7 +10510,7 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>1381.25</v>
+        <v>0</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -10564,7 +10564,7 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>3038.75</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
@@ -10619,7 +10619,7 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>3867.5</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>1491.75</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>5950</v>
+        <v>0</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="J187" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>3213</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
         <v>0</v>
@@ -10889,7 +10889,7 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>106250</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
         <v>0</v>
@@ -10945,7 +10945,7 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>21165</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
@@ -11001,7 +11001,7 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>5525</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
@@ -11055,7 +11055,7 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>3187.5</v>
+        <v>0</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>8880</v>
+        <v>0</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
@@ -11167,7 +11167,7 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>23920</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>9720</v>
+        <v>0</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -11331,7 +11331,7 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -11443,7 +11443,7 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>14700</v>
+        <v>0</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
@@ -11499,7 +11499,7 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>2688</v>
+        <v>0</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
@@ -11555,7 +11555,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -11723,7 +11723,7 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>68880</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -11779,7 +11779,7 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>157200</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>1248</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>17872</v>
+        <v>0</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
@@ -11947,7 +11947,7 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>41888</v>
+        <v>0</v>
       </c>
       <c r="J208" t="n">
         <v>0</v>
@@ -12003,7 +12003,7 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="J209" t="n">
         <v>0</v>
@@ -12059,7 +12059,7 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>12540</v>
+        <v>0</v>
       </c>
       <c r="J210" t="n">
         <v>0</v>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="J211" t="n">
         <v>0</v>
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>4824</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
@@ -12227,7 +12227,7 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -12283,7 +12283,7 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="J214" t="n">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>18560</v>
+        <v>0</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
@@ -12451,7 +12451,7 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>63000</v>
+        <v>0</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -12507,7 +12507,7 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="J219" t="n">
         <v>0</v>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>24400</v>
+        <v>0</v>
       </c>
       <c r="J220" t="n">
         <v>0</v>
@@ -12673,7 +12673,7 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="J221" t="n">
         <v>0</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>10260</v>
+        <v>0</v>
       </c>
       <c r="J222" t="n">
         <v>0</v>
@@ -12781,7 +12781,7 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>35100</v>
+        <v>0</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>24480</v>
+        <v>0</v>
       </c>
       <c r="J224" t="n">
         <v>0</v>
@@ -12889,7 +12889,7 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>3315</v>
+        <v>0</v>
       </c>
       <c r="J225" t="n">
         <v>0</v>
@@ -12943,7 +12943,7 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>65100</v>
+        <v>0</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -12999,7 +12999,7 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>85600</v>
+        <v>0</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -13053,7 +13053,7 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>13260</v>
+        <v>0</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -13107,7 +13107,7 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>17600</v>
+        <v>0</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -13161,7 +13161,7 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>11760</v>
+        <v>0</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -13215,7 +13215,7 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -13269,7 +13269,7 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>3116</v>
+        <v>0</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
@@ -13323,7 +13323,7 @@
         </is>
       </c>
       <c r="I233" t="n">
-        <v>45720</v>
+        <v>0</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
@@ -13377,7 +13377,7 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="J234" t="n">
         <v>0</v>
@@ -13431,7 +13431,7 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="J235" t="n">
         <v>0</v>
@@ -13485,7 +13485,7 @@
         </is>
       </c>
       <c r="I236" t="n">
-        <v>27600</v>
+        <v>0</v>
       </c>
       <c r="J236" t="n">
         <v>0</v>
@@ -13539,7 +13539,7 @@
         </is>
       </c>
       <c r="I237" t="n">
-        <v>158374.125</v>
+        <v>0</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
@@ -13593,7 +13593,7 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>29767.5</v>
+        <v>0</v>
       </c>
       <c r="J238" t="n">
         <v>0</v>
@@ -13647,7 +13647,7 @@
         </is>
       </c>
       <c r="I239" t="n">
-        <v>20475</v>
+        <v>0</v>
       </c>
       <c r="J239" t="n">
         <v>0</v>
@@ -13701,7 +13701,7 @@
         </is>
       </c>
       <c r="I240" t="n">
-        <v>38892</v>
+        <v>0</v>
       </c>
       <c r="J240" t="n">
         <v>0</v>
@@ -13755,7 +13755,7 @@
         </is>
       </c>
       <c r="I241" t="n">
-        <v>15669.5</v>
+        <v>0</v>
       </c>
       <c r="J241" t="n">
         <v>0</v>
@@ -13809,7 +13809,7 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>49045.935</v>
+        <v>0</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -13863,7 +13863,7 @@
         </is>
       </c>
       <c r="I243" t="n">
-        <v>200558.775</v>
+        <v>0</v>
       </c>
       <c r="J243" t="n">
         <v>0</v>
@@ -13917,7 +13917,7 @@
         </is>
       </c>
       <c r="I244" t="n">
-        <v>120534.675</v>
+        <v>0</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>180116.445</v>
+        <v>0</v>
       </c>
       <c r="J245" t="n">
         <v>0</v>
@@ -14025,7 +14025,7 @@
         </is>
       </c>
       <c r="I246" t="n">
-        <v>87875.03999999999</v>
+        <v>0</v>
       </c>
       <c r="J246" t="n">
         <v>0</v>
@@ -14079,7 +14079,7 @@
         </is>
       </c>
       <c r="I247" t="n">
-        <v>229743.78</v>
+        <v>0</v>
       </c>
       <c r="J247" t="n">
         <v>0</v>
@@ -14133,7 +14133,7 @@
         </is>
       </c>
       <c r="I248" t="n">
-        <v>49852.5</v>
+        <v>0</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -14187,7 +14187,7 @@
         </is>
       </c>
       <c r="I249" t="n">
-        <v>2550</v>
+        <v>0</v>
       </c>
       <c r="J249" t="n">
         <v>0</v>
@@ -14241,7 +14241,7 @@
         </is>
       </c>
       <c r="I250" t="n">
-        <v>97879.58249999999</v>
+        <v>0</v>
       </c>
       <c r="J250" t="n">
         <v>0</v>
@@ -14295,7 +14295,7 @@
         </is>
       </c>
       <c r="I251" t="n">
-        <v>44529.375</v>
+        <v>0</v>
       </c>
       <c r="J251" t="n">
         <v>0</v>
@@ -14349,7 +14349,7 @@
         </is>
       </c>
       <c r="I252" t="n">
-        <v>24225</v>
+        <v>0</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -14403,7 +14403,7 @@
         </is>
       </c>
       <c r="I253" t="n">
-        <v>58718</v>
+        <v>0</v>
       </c>
       <c r="J253" t="n">
         <v>0</v>
@@ -14457,7 +14457,7 @@
         </is>
       </c>
       <c r="I254" t="n">
-        <v>602236.05</v>
+        <v>0</v>
       </c>
       <c r="J254" t="n">
         <v>0</v>
@@ -14511,7 +14511,7 @@
         </is>
       </c>
       <c r="I255" t="n">
-        <v>408000</v>
+        <v>0</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
@@ -14565,7 +14565,7 @@
         </is>
       </c>
       <c r="I256" t="n">
-        <v>507284.25</v>
+        <v>0</v>
       </c>
       <c r="J256" t="n">
         <v>0</v>
@@ -14619,7 +14619,7 @@
         </is>
       </c>
       <c r="I257" t="n">
-        <v>36645.9225</v>
+        <v>0</v>
       </c>
       <c r="J257" t="n">
         <v>0</v>
@@ -14673,7 +14673,7 @@
         </is>
       </c>
       <c r="I258" t="n">
-        <v>92820</v>
+        <v>0</v>
       </c>
       <c r="J258" t="n">
         <v>0</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="I259" t="n">
-        <v>33468.75</v>
+        <v>0</v>
       </c>
       <c r="J259" t="n">
         <v>0</v>
@@ -14781,7 +14781,7 @@
         </is>
       </c>
       <c r="I260" t="n">
-        <v>93712.5</v>
+        <v>0</v>
       </c>
       <c r="J260" t="n">
         <v>0</v>
@@ -14835,7 +14835,7 @@
         </is>
       </c>
       <c r="I261" t="n">
-        <v>183468.675</v>
+        <v>0</v>
       </c>
       <c r="J261" t="n">
         <v>0</v>
@@ -14889,7 +14889,7 @@
         </is>
       </c>
       <c r="I262" t="n">
-        <v>30929.5875</v>
+        <v>0</v>
       </c>
       <c r="J262" t="n">
         <v>0</v>
@@ -14943,7 +14943,7 @@
         </is>
       </c>
       <c r="I263" t="n">
-        <v>73702.14</v>
+        <v>0</v>
       </c>
       <c r="J263" t="n">
         <v>0</v>
@@ -14997,7 +14997,7 @@
         </is>
       </c>
       <c r="I264" t="n">
-        <v>213290.7975</v>
+        <v>0</v>
       </c>
       <c r="J264" t="n">
         <v>0</v>
@@ -15051,7 +15051,7 @@
         </is>
       </c>
       <c r="I265" t="n">
-        <v>31683.75</v>
+        <v>0</v>
       </c>
       <c r="J265" t="n">
         <v>0</v>
@@ -15105,7 +15105,7 @@
         </is>
       </c>
       <c r="I266" t="n">
-        <v>26922.9</v>
+        <v>0</v>
       </c>
       <c r="J266" t="n">
         <v>0</v>
@@ -15159,7 +15159,7 @@
         </is>
       </c>
       <c r="I267" t="n">
-        <v>18275</v>
+        <v>0</v>
       </c>
       <c r="J267" t="n">
         <v>0</v>
@@ -15213,7 +15213,7 @@
         </is>
       </c>
       <c r="I268" t="n">
-        <v>123250</v>
+        <v>0</v>
       </c>
       <c r="J268" t="n">
         <v>0</v>
@@ -15267,7 +15267,7 @@
         </is>
       </c>
       <c r="I269" t="n">
-        <v>30827.12</v>
+        <v>0</v>
       </c>
       <c r="J269" t="n">
         <v>0</v>
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="I270" t="n">
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="J270" t="n">
         <v>0</v>
@@ -15375,7 +15375,7 @@
         </is>
       </c>
       <c r="I271" t="n">
-        <v>63537.5</v>
+        <v>0</v>
       </c>
       <c r="J271" t="n">
         <v>0</v>
@@ -15429,7 +15429,7 @@
         </is>
       </c>
       <c r="I272" t="n">
-        <v>119510</v>
+        <v>0</v>
       </c>
       <c r="J272" t="n">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         </is>
       </c>
       <c r="I273" t="n">
-        <v>114058.3125</v>
+        <v>0</v>
       </c>
       <c r="J273" t="n">
         <v>0</v>
@@ -15537,7 +15537,7 @@
         </is>
       </c>
       <c r="I274" t="n">
-        <v>3315</v>
+        <v>0</v>
       </c>
       <c r="J274" t="n">
         <v>0</v>
@@ -15591,7 +15591,7 @@
         </is>
       </c>
       <c r="I275" t="n">
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="J275" t="n">
         <v>0</v>
@@ -15645,7 +15645,7 @@
         </is>
       </c>
       <c r="I276" t="n">
-        <v>93600</v>
+        <v>0</v>
       </c>
       <c r="J276" t="n">
         <v>0</v>
@@ -15699,7 +15699,7 @@
         </is>
       </c>
       <c r="I277" t="n">
-        <v>132000</v>
+        <v>0</v>
       </c>
       <c r="J277" t="n">
         <v>0</v>
@@ -15753,7 +15753,7 @@
         </is>
       </c>
       <c r="I278" t="n">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="J278" t="n">
         <v>0</v>
@@ -15807,7 +15807,7 @@
         </is>
       </c>
       <c r="I279" t="n">
-        <v>58800</v>
+        <v>0</v>
       </c>
       <c r="J279" t="n">
         <v>0</v>
@@ -15861,7 +15861,7 @@
         </is>
       </c>
       <c r="I280" t="n">
-        <v>40640</v>
+        <v>0</v>
       </c>
       <c r="J280" t="n">
         <v>0</v>
@@ -15915,7 +15915,7 @@
         </is>
       </c>
       <c r="I281" t="n">
-        <v>37600</v>
+        <v>0</v>
       </c>
       <c r="J281" t="n">
         <v>0</v>
@@ -15969,7 +15969,7 @@
         </is>
       </c>
       <c r="I282" t="n">
-        <v>76800</v>
+        <v>0</v>
       </c>
       <c r="J282" t="n">
         <v>0</v>
@@ -16023,7 +16023,7 @@
         </is>
       </c>
       <c r="I283" t="n">
-        <v>176640</v>
+        <v>0</v>
       </c>
       <c r="J283" t="n">
         <v>0</v>
@@ -16079,7 +16079,7 @@
         </is>
       </c>
       <c r="I284" t="n">
-        <v>52000</v>
+        <v>0</v>
       </c>
       <c r="J284" t="n">
         <v>0</v>
@@ -16135,7 +16135,7 @@
         </is>
       </c>
       <c r="I285" t="n">
-        <v>69600</v>
+        <v>0</v>
       </c>
       <c r="J285" t="n">
         <v>0</v>
@@ -16191,7 +16191,7 @@
         </is>
       </c>
       <c r="I286" t="n">
-        <v>112000</v>
+        <v>0</v>
       </c>
       <c r="J286" t="n">
         <v>0</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="I287" t="n">
-        <v>76000</v>
+        <v>0</v>
       </c>
       <c r="J287" t="n">
         <v>0</v>
@@ -16301,7 +16301,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="J288" t="n">
         <v>0</v>
@@ -16357,7 +16357,7 @@
         </is>
       </c>
       <c r="I289" t="n">
-        <v>338000</v>
+        <v>0</v>
       </c>
       <c r="J289" t="n">
         <v>0</v>
@@ -16413,7 +16413,7 @@
         </is>
       </c>
       <c r="I290" t="n">
-        <v>6760</v>
+        <v>0</v>
       </c>
       <c r="J290" t="n">
         <v>0</v>
@@ -16469,7 +16469,7 @@
         </is>
       </c>
       <c r="I291" t="n">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="J291" t="n">
         <v>0</v>
@@ -16525,7 +16525,7 @@
         </is>
       </c>
       <c r="I292" t="n">
-        <v>18720</v>
+        <v>0</v>
       </c>
       <c r="J292" t="n">
         <v>0</v>
@@ -16581,7 +16581,7 @@
         </is>
       </c>
       <c r="I293" t="n">
-        <v>94744</v>
+        <v>0</v>
       </c>
       <c r="J293" t="n">
         <v>0</v>
@@ -16637,7 +16637,7 @@
         </is>
       </c>
       <c r="I294" t="n">
-        <v>7150</v>
+        <v>0</v>
       </c>
       <c r="J294" t="n">
         <v>0</v>
@@ -16693,7 +16693,7 @@
         </is>
       </c>
       <c r="I295" t="n">
-        <v>160000</v>
+        <v>0</v>
       </c>
       <c r="J295" t="n">
         <v>0</v>
@@ -16747,7 +16747,7 @@
         </is>
       </c>
       <c r="I296" t="n">
-        <v>945888</v>
+        <v>0</v>
       </c>
       <c r="J296" t="n">
         <v>0</v>
@@ -16801,7 +16801,7 @@
         </is>
       </c>
       <c r="I297" t="n">
-        <v>96000</v>
+        <v>0</v>
       </c>
       <c r="J297" t="n">
         <v>0</v>
@@ -16855,7 +16855,7 @@
         </is>
       </c>
       <c r="I298" t="n">
-        <v>63040</v>
+        <v>0</v>
       </c>
       <c r="J298" t="n">
         <v>0</v>
@@ -16909,7 +16909,7 @@
         </is>
       </c>
       <c r="I299" t="n">
-        <v>40080</v>
+        <v>0</v>
       </c>
       <c r="J299" t="n">
         <v>0</v>
@@ -16963,7 +16963,7 @@
         </is>
       </c>
       <c r="I300" t="n">
-        <v>150400</v>
+        <v>0</v>
       </c>
       <c r="J300" t="n">
         <v>0</v>
@@ -17017,7 +17017,7 @@
         </is>
       </c>
       <c r="I301" t="n">
-        <v>36400</v>
+        <v>0</v>
       </c>
       <c r="J301" t="n">
         <v>0</v>
